--- a/DamageBook.xlsx
+++ b/DamageBook.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Attacker</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>Attacker Final Size</t>
+  </si>
+  <si>
+    <t>Damage multiplier</t>
+  </si>
+  <si>
+    <t>Grow multiplier</t>
   </si>
 </sst>
 </file>
@@ -365,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,6 +382,8 @@
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -394,6 +402,12 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -433,11 +447,11 @@
         <v>1.5</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D8" si="1">B3 - C3</f>
+        <f t="shared" ref="D3:D9" si="1">B3 - C3</f>
         <v>0.5</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E8" si="2">A3+C3*$H$2</f>
+        <f t="shared" ref="E3:E9" si="2">A3+C3*$H$2</f>
         <v>5.125</v>
       </c>
     </row>
@@ -539,6 +553,26 @@
       <c r="E8">
         <f t="shared" si="2"/>
         <v>5.703125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>(A9/B9)*$G$2*((A9+B9) /2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>1.1875</v>
       </c>
     </row>
   </sheetData>
